--- a/console/Elastic-Compute/Virtual-Machine/components/customTable/customTable.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/customTable/customTable.xlsx
@@ -52,8 +52,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select a management of 10 information to be shown in the list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Please select up to 10 information items to display</t>
   </si>
 </sst>
 </file>
@@ -418,7 +417,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
